--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3250.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3250.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.945003643941446</v>
+        <v>0.455242931842804</v>
       </c>
       <c r="B1">
-        <v>2.297054676413831</v>
+        <v>0.2978412210941315</v>
       </c>
       <c r="C1">
-        <v>2.293511900718829</v>
+        <v>0.2321763932704926</v>
       </c>
       <c r="D1">
-        <v>3.034693401830133</v>
+        <v>0.2262540459632874</v>
       </c>
       <c r="E1">
-        <v>2.561279343143877</v>
+        <v>0.2455356568098068</v>
       </c>
     </row>
   </sheetData>
